--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H2">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N2">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O2">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P2">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q2">
-        <v>5211.566171064179</v>
+        <v>89.95292178861334</v>
       </c>
       <c r="R2">
-        <v>46904.09553957761</v>
+        <v>809.57629609752</v>
       </c>
       <c r="S2">
-        <v>0.449063400600577</v>
+        <v>0.1104990621619686</v>
       </c>
       <c r="T2">
-        <v>0.4490634006005771</v>
+        <v>0.1104990621619686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H3">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P3">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q3">
-        <v>99.93691652259088</v>
+        <v>28.06672703836167</v>
       </c>
       <c r="R3">
-        <v>899.4322487033179</v>
+        <v>252.600543345255</v>
       </c>
       <c r="S3">
-        <v>0.008611233189044736</v>
+        <v>0.03447744613546853</v>
       </c>
       <c r="T3">
-        <v>0.008611233189044738</v>
+        <v>0.03447744613546853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H4">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I4">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J4">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q4">
-        <v>160.5342670676384</v>
+        <v>45.08515582499833</v>
       </c>
       <c r="R4">
-        <v>1444.808403608746</v>
+        <v>405.766402424985</v>
       </c>
       <c r="S4">
-        <v>0.01383270623763268</v>
+        <v>0.05538305301295015</v>
       </c>
       <c r="T4">
-        <v>0.01383270623763268</v>
+        <v>0.05538305301295015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>37.720135</v>
       </c>
       <c r="I5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N5">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O5">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P5">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q5">
-        <v>2806.839910288571</v>
+        <v>172.5038672385689</v>
       </c>
       <c r="R5">
-        <v>25261.55919259714</v>
+        <v>1552.53480514712</v>
       </c>
       <c r="S5">
-        <v>0.2418561011570589</v>
+        <v>0.2119054631040067</v>
       </c>
       <c r="T5">
-        <v>0.2418561011570589</v>
+        <v>0.2119054631040067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>37.720135</v>
       </c>
       <c r="I6">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J6">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P6">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q6">
         <v>53.8239209864061</v>
@@ -818,10 +818,10 @@
         <v>484.415288877655</v>
       </c>
       <c r="S6">
-        <v>0.004637829051468574</v>
+        <v>0.06611783889415179</v>
       </c>
       <c r="T6">
-        <v>0.004637829051468575</v>
+        <v>0.06611783889415179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>37.720135</v>
       </c>
       <c r="I7">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J7">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q7">
         <v>86.46037927642054</v>
@@ -880,10 +880,10 @@
         <v>778.1434134877849</v>
       </c>
       <c r="S7">
-        <v>0.007450004597592383</v>
+        <v>0.1062087882666412</v>
       </c>
       <c r="T7">
-        <v>0.007450004597592384</v>
+        <v>0.1062087882666412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H8">
         <v>40.780714</v>
       </c>
       <c r="I8">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J8">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N8">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O8">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P8">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q8">
-        <v>3034.584463318168</v>
+        <v>186.5006812343076</v>
       </c>
       <c r="R8">
-        <v>27311.26016986352</v>
+        <v>1678.506131108768</v>
       </c>
       <c r="S8">
-        <v>0.2614800951916287</v>
+        <v>0.2290992883742873</v>
       </c>
       <c r="T8">
-        <v>0.2614800951916288</v>
+        <v>0.2290992883742873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H9">
         <v>40.780714</v>
       </c>
       <c r="I9">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J9">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.842353</v>
       </c>
       <c r="O9">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P9">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q9">
-        <v>58.19114719778243</v>
+        <v>58.19114719778245</v>
       </c>
       <c r="R9">
-        <v>523.7203247800419</v>
+        <v>523.720324780042</v>
       </c>
       <c r="S9">
-        <v>0.005014138473492504</v>
+        <v>0.07148258292926261</v>
       </c>
       <c r="T9">
-        <v>0.005014138473492505</v>
+        <v>0.07148258292926261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H10">
         <v>40.780714</v>
       </c>
       <c r="I10">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J10">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>20.629391</v>
       </c>
       <c r="O10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q10">
-        <v>93.4756993739082</v>
+        <v>93.47569937390823</v>
       </c>
       <c r="R10">
-        <v>841.2812943651738</v>
+        <v>841.2812943651739</v>
       </c>
       <c r="S10">
-        <v>0.008054491501504436</v>
+        <v>0.114826477121263</v>
       </c>
       <c r="T10">
-        <v>0.008054491501504437</v>
+        <v>0.1148264771212631</v>
       </c>
     </row>
   </sheetData>
